--- a/src/dataset/docenti_a_contratto.xlsx
+++ b/src/dataset/docenti_a_contratto.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>LMSM</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -9313,7 +9313,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -10494,7 +10494,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>LMSM</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -12020,7 +12020,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>LMSM</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -13408,7 +13408,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -14447,7 +14447,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -14593,7 +14593,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -14869,7 +14869,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -15214,7 +15214,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>LTSM</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -15904,7 +15904,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -16180,7 +16180,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -16249,7 +16249,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>LTSM</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -16387,7 +16387,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -17012,7 +17012,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -18051,7 +18051,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -18327,7 +18327,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -18465,7 +18465,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -18603,7 +18603,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -19094,7 +19094,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -19163,7 +19163,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -19512,7 +19512,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -19581,7 +19581,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -19719,7 +19719,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -19930,7 +19930,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -19999,7 +19999,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -20137,7 +20137,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -20206,7 +20206,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -20490,7 +20490,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -20766,7 +20766,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -20835,7 +20835,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -21111,7 +21111,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -21249,7 +21249,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -21318,7 +21318,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -21387,7 +21387,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -21456,7 +21456,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -21525,7 +21525,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -21663,7 +21663,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -21801,7 +21801,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>LMSM</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -21874,7 +21874,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -21943,7 +21943,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -22702,7 +22702,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -23822,7 +23822,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -23891,7 +23891,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -24175,7 +24175,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -24244,7 +24244,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -24382,7 +24382,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -24727,7 +24727,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -25141,7 +25141,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -25283,7 +25283,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -25352,7 +25352,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -25421,7 +25421,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -25490,7 +25490,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -25632,7 +25632,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -25701,7 +25701,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -25770,7 +25770,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -25843,7 +25843,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -26054,7 +26054,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -26123,7 +26123,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -26192,7 +26192,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -26261,7 +26261,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -26330,7 +26330,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -26399,7 +26399,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -26468,7 +26468,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -26606,7 +26606,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -26744,7 +26744,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -26951,7 +26951,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -27365,7 +27365,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -27434,7 +27434,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -27503,7 +27503,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -27641,7 +27641,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -28124,7 +28124,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
@@ -28339,7 +28339,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -28408,7 +28408,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -28477,7 +28477,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -28546,7 +28546,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -28615,7 +28615,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -28822,7 +28822,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -28891,7 +28891,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -28960,7 +28960,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -29029,7 +29029,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -29443,7 +29443,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -29650,7 +29650,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -29719,7 +29719,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -30133,7 +30133,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -30202,7 +30202,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
@@ -30705,7 +30705,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -30774,7 +30774,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -30843,7 +30843,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -30981,7 +30981,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -31119,7 +31119,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -31257,7 +31257,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -31326,7 +31326,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -31533,7 +31533,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -31602,7 +31602,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -31671,7 +31671,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -31740,7 +31740,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>LMSM</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -31809,7 +31809,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -31878,7 +31878,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -32093,7 +32093,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -32304,7 +32304,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -32519,7 +32519,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
@@ -32588,7 +32588,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -33728,7 +33728,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -33866,7 +33866,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -33935,7 +33935,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -34004,7 +34004,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -34073,7 +34073,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -34142,7 +34142,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -34280,7 +34280,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
@@ -34349,7 +34349,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -34418,7 +34418,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -34625,7 +34625,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -34694,7 +34694,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -34763,7 +34763,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -34832,7 +34832,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
@@ -35039,7 +35039,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
@@ -35108,7 +35108,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
@@ -35461,7 +35461,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -35603,7 +35603,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -35672,7 +35672,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -35948,7 +35948,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -36017,7 +36017,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -36086,7 +36086,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -36155,7 +36155,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
@@ -36224,7 +36224,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -36293,7 +36293,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -36362,7 +36362,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
@@ -36431,7 +36431,7 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -36500,7 +36500,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -36569,7 +36569,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
@@ -36638,7 +36638,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -36707,7 +36707,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -36776,7 +36776,7 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -36845,7 +36845,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
@@ -37705,7 +37705,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -37774,7 +37774,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -37843,7 +37843,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -37912,7 +37912,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -37981,7 +37981,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
@@ -38119,7 +38119,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -38188,7 +38188,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
@@ -38257,7 +38257,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
@@ -38464,7 +38464,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
@@ -38533,7 +38533,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -38602,7 +38602,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
@@ -38675,7 +38675,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
@@ -38748,7 +38748,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
@@ -39093,7 +39093,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -39162,7 +39162,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
@@ -39308,7 +39308,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
@@ -39831,7 +39831,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
@@ -39908,7 +39908,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
@@ -40119,7 +40119,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -40188,7 +40188,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
@@ -40257,7 +40257,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
@@ -40326,7 +40326,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
@@ -40395,7 +40395,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
@@ -40464,7 +40464,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
@@ -40533,7 +40533,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
@@ -40602,7 +40602,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
@@ -41085,7 +41085,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
@@ -41154,7 +41154,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
@@ -41361,7 +41361,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
@@ -41844,7 +41844,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H595" t="inlineStr">
@@ -41913,7 +41913,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H596" t="inlineStr">
@@ -42055,7 +42055,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
@@ -42128,7 +42128,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H599" t="inlineStr">
@@ -42201,7 +42201,7 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
@@ -42408,7 +42408,7 @@
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H603" t="inlineStr">
@@ -42477,7 +42477,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H604" t="inlineStr">
@@ -42546,7 +42546,7 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">
@@ -42623,7 +42623,7 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H606" t="inlineStr">
@@ -42700,7 +42700,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>LMSM</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
@@ -42777,7 +42777,7 @@
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
@@ -42931,7 +42931,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H610" t="inlineStr">
@@ -43008,7 +43008,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
@@ -43077,7 +43077,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
@@ -43146,7 +43146,7 @@
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H613" t="inlineStr">
@@ -43215,7 +43215,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H614" t="inlineStr">
@@ -43284,7 +43284,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
@@ -43353,7 +43353,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
@@ -43491,7 +43491,7 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H618" t="inlineStr">
@@ -43560,7 +43560,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
@@ -43629,7 +43629,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
@@ -43698,7 +43698,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">
@@ -44051,7 +44051,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
@@ -44120,7 +44120,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H627" t="inlineStr">
@@ -44189,7 +44189,7 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H628" t="inlineStr">
@@ -44258,7 +44258,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H629" t="inlineStr">
@@ -44396,7 +44396,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
@@ -44465,7 +44465,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H632" t="inlineStr">
@@ -44607,7 +44607,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
@@ -44684,7 +44684,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H635" t="inlineStr">
@@ -44830,7 +44830,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H637" t="inlineStr">
@@ -44968,7 +44968,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
@@ -45179,7 +45179,7 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H642" t="inlineStr">
@@ -45317,7 +45317,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
@@ -45386,7 +45386,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
@@ -45455,7 +45455,7 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
@@ -45601,7 +45601,7 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
@@ -45670,7 +45670,7 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
@@ -45816,7 +45816,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
@@ -45885,7 +45885,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -45954,7 +45954,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
@@ -46023,7 +46023,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
@@ -46092,7 +46092,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
@@ -46161,7 +46161,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
@@ -46575,7 +46575,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
@@ -46644,7 +46644,7 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H663" t="inlineStr">
@@ -46713,7 +46713,7 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H664" t="inlineStr">
@@ -46786,7 +46786,7 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H665" t="inlineStr">
@@ -46924,7 +46924,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
@@ -46993,7 +46993,7 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
@@ -47062,7 +47062,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
@@ -47338,7 +47338,7 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H673" t="inlineStr">
@@ -47407,7 +47407,7 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H674" t="inlineStr">
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H675" t="inlineStr">
@@ -47614,7 +47614,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
@@ -47683,7 +47683,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H678" t="inlineStr">
@@ -47829,7 +47829,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H680" t="inlineStr">
@@ -47902,7 +47902,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H681" t="inlineStr">
@@ -47975,7 +47975,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
@@ -48044,7 +48044,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H683" t="inlineStr">
@@ -48113,7 +48113,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H684" t="inlineStr">
@@ -48320,7 +48320,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H687" t="inlineStr">
@@ -48389,7 +48389,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
@@ -48458,7 +48458,7 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
@@ -48596,7 +48596,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
@@ -48803,7 +48803,7 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H694" t="inlineStr">
@@ -48941,7 +48941,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H696" t="inlineStr">
@@ -49010,7 +49010,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H697" t="inlineStr">
@@ -49079,7 +49079,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H698" t="inlineStr">
@@ -49148,7 +49148,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H699" t="inlineStr">
@@ -49432,7 +49432,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H703" t="inlineStr">
@@ -49501,7 +49501,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H704" t="inlineStr">
@@ -49570,7 +49570,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H705" t="inlineStr">
@@ -49639,7 +49639,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H706" t="inlineStr">
@@ -49915,7 +49915,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H710" t="inlineStr">
@@ -49984,7 +49984,7 @@
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H711" t="inlineStr">
@@ -50053,7 +50053,7 @@
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H712" t="inlineStr">
@@ -50122,7 +50122,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H713" t="inlineStr">
@@ -50191,7 +50191,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H714" t="inlineStr">
@@ -50260,7 +50260,7 @@
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H715" t="inlineStr">
@@ -50605,7 +50605,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H720" t="inlineStr">
@@ -50674,7 +50674,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H721" t="inlineStr">
@@ -50743,7 +50743,7 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H722" t="inlineStr">
@@ -51230,7 +51230,7 @@
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>LMSS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H729" t="inlineStr">
@@ -51721,7 +51721,7 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H736" t="inlineStr">
@@ -51790,7 +51790,7 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H737" t="inlineStr">
@@ -51928,7 +51928,7 @@
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="H739" t="inlineStr">
@@ -52139,7 +52139,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H742" t="inlineStr">
@@ -52208,7 +52208,7 @@
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H743" t="inlineStr">
@@ -52277,7 +52277,7 @@
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H744" t="inlineStr">
@@ -52764,7 +52764,7 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H751" t="inlineStr">
@@ -53109,7 +53109,7 @@
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H756" t="inlineStr">
@@ -53182,7 +53182,7 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H757" t="inlineStr">
@@ -53531,7 +53531,7 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H762" t="inlineStr">
@@ -53811,7 +53811,7 @@
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H766" t="inlineStr">
@@ -53884,7 +53884,7 @@
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H767" t="inlineStr">
@@ -53953,7 +53953,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H768" t="inlineStr">
@@ -54379,7 +54379,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H774" t="inlineStr">
@@ -54452,7 +54452,7 @@
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H775" t="inlineStr">
@@ -54521,7 +54521,7 @@
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H776" t="inlineStr">
@@ -54659,7 +54659,7 @@
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H778" t="inlineStr">
@@ -54874,7 +54874,7 @@
       </c>
       <c r="G781" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H781" t="inlineStr">
@@ -54943,7 +54943,7 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H782" t="inlineStr">
@@ -55012,7 +55012,7 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H783" t="inlineStr">
@@ -55081,7 +55081,7 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H784" t="inlineStr">
@@ -55150,7 +55150,7 @@
       </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H785" t="inlineStr">
@@ -55288,7 +55288,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H787" t="inlineStr">
@@ -55357,7 +55357,7 @@
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H788" t="inlineStr">
@@ -55426,7 +55426,7 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H789" t="inlineStr">
@@ -55495,7 +55495,7 @@
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H790" t="inlineStr">
@@ -55633,7 +55633,7 @@
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H792" t="inlineStr">
@@ -55840,7 +55840,7 @@
       </c>
       <c r="G795" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H795" t="inlineStr">
@@ -55909,7 +55909,7 @@
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H796" t="inlineStr">
@@ -55978,7 +55978,7 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>LMSM</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H797" t="inlineStr">
@@ -56185,7 +56185,7 @@
       </c>
       <c r="G800" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H800" t="inlineStr">
@@ -56392,7 +56392,7 @@
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H803" t="inlineStr">
@@ -56737,7 +56737,7 @@
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H808" t="inlineStr">
@@ -56806,7 +56806,7 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>LCPC</t>
         </is>
       </c>
       <c r="H809" t="inlineStr">
@@ -56875,7 +56875,7 @@
       </c>
       <c r="G810" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H810" t="inlineStr">
@@ -56944,7 +56944,7 @@
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H811" t="inlineStr">
@@ -57013,7 +57013,7 @@
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H812" t="inlineStr">
@@ -57151,7 +57151,7 @@
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>LTPS</t>
+          <t>LCPB</t>
         </is>
       </c>
       <c r="H814" t="inlineStr">
@@ -57220,7 +57220,7 @@
       </c>
       <c r="G815" t="inlineStr">
         <is>
-          <t>LTSS</t>
+          <t>LCPA</t>
         </is>
       </c>
       <c r="H815" t="inlineStr">
